--- a/inst/adlb_grading/adlb_grading_spec.xlsx
+++ b/inst/adlb_grading/adlb_grading_spec.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="310">
   <si>
     <t>Anemia</t>
   </si>
@@ -24456,8 +24456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z972"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -26047,9 +26047,7 @@
       <c r="I31" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="J31" s="17" t="s">
-        <v>253</v>
-      </c>
+      <c r="J31" s="17"/>
       <c r="K31" s="4" t="s">
         <v>16</v>
       </c>

--- a/inst/adlb_grading/adlb_grading_spec.xlsx
+++ b/inst/adlb_grading/adlb_grading_spec.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\millerg1\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\millerg1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NCICTCAEv4" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="685">
   <si>
     <t>Anemia</t>
   </si>
@@ -1024,9 +1024,6 @@
     <t>Absolute Lymphocyte Count, Low</t>
   </si>
   <si>
-    <t>&gt; 5 years of age (not HIV infected)</t>
-  </si>
-  <si>
     <t>&lt;350/mm3; &lt;0.350 x 10e9 /L</t>
   </si>
   <si>
@@ -1070,9 +1067,6 @@
   </si>
   <si>
     <t>PTT, High</t>
-  </si>
-  <si>
-    <t>not on anticoagulation therapy</t>
   </si>
   <si>
     <t>&gt;=3.00 x ULN</t>
@@ -2244,16 +2238,6 @@
   <si>
     <t>case_when(
 is.na(AVAL) | is.na(BRTHDT) | is.na(LBDT) ~ NA_character_,
-signif(AVAL, signif_dig) &lt; 0.35 ~ "4",
-signif(AVAL, signif_dig) &lt; 0.5 ~ "3",
-signif(AVAL, signif_dig) &lt; 0.6 ~ "2",
-signif(AVAL, signif_dig) &lt; 0.65 ~ "1",
-signif(AVAL, signif_dig) &lt;= 0.65 ~ "0"
-)</t>
-  </si>
-  <si>
-    <t>case_when(
-is.na(AVAL) | is.na(BRTHDT) | is.na(LBDT) ~ NA_character_,
 signif(AVAL, signif_dig) &lt; 0.4 ~ "4",
 signif(AVAL, signif_dig) &lt; 0.6 ~ "3",
 signif(AVAL, signif_dig) &lt; 0.8 ~ "2",
@@ -2955,6 +2939,19 @@
 !is.na(BASE) &amp; signif(BASE, signif_dig) &gt; signif(ANRHI, signif_dig) &amp; signif(AVAL, signif_dig) &lt;= signif(BASE, signif_dig) ~ "0"
 )</t>
   </si>
+  <si>
+    <t>&gt; 5 years of age</t>
+  </si>
+  <si>
+    <t>case_when(
+is.na(AVAL) | is.na(BRTHDT) | is.na(LBDT) ~ NA_character_,
+signif(AVAL, signif_dig) &lt; 0.35 ~ "4",
+signif(AVAL, signif_dig) &lt; 0.5 ~ "3",
+signif(AVAL, signif_dig) &lt; 0.6 ~ "2",
+signif(AVAL, signif_dig) &lt; 0.65 ~ "1",
+signif(AVAL, signif_dig) &gt;= 0.65 ~ "0"
+)</t>
+  </si>
 </sst>
 </file>
 
@@ -3532,7 +3529,7 @@
         <v>182</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>2</v>
@@ -3584,7 +3581,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>10</v>
@@ -3636,7 +3633,7 @@
         <v>186</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
@@ -3686,7 +3683,7 @@
         <v>23</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
@@ -3736,7 +3733,7 @@
         <v>27</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
@@ -3786,7 +3783,7 @@
         <v>29</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
@@ -3836,7 +3833,7 @@
         <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="4" t="s">
@@ -3886,7 +3883,7 @@
         <v>39</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>10</v>
@@ -3938,7 +3935,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>42</v>
@@ -3990,7 +3987,7 @@
         <v>51</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="4" t="s">
@@ -4040,7 +4037,7 @@
         <v>58</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="4" t="s">
@@ -4090,7 +4087,7 @@
         <v>63</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>2</v>
@@ -4142,7 +4139,7 @@
         <v>65</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="4" t="s">
@@ -4192,7 +4189,7 @@
         <v>68</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="4" t="s">
@@ -4242,7 +4239,7 @@
         <v>190</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>2</v>
@@ -4294,7 +4291,7 @@
         <v>77</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="4" t="s">
@@ -4346,7 +4343,7 @@
         <v>82</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="4" t="s">
@@ -4396,7 +4393,7 @@
         <v>86</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>10</v>
@@ -4448,7 +4445,7 @@
         <v>192</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>10</v>
@@ -4500,7 +4497,7 @@
         <v>95</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>10</v>
@@ -4552,7 +4549,7 @@
         <v>101</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>10</v>
@@ -4604,7 +4601,7 @@
         <v>103</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="4" t="s">
@@ -4654,7 +4651,7 @@
         <v>109</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>10</v>
@@ -4706,7 +4703,7 @@
         <v>198</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="J25" s="17" t="s">
         <v>212</v>
@@ -4760,7 +4757,7 @@
         <v>198</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="J26" s="17" t="s">
         <v>212</v>
@@ -4814,7 +4811,7 @@
         <v>199</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="J27" s="17" t="s">
         <v>212</v>
@@ -4868,7 +4865,7 @@
         <v>199</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="J28" s="17" t="s">
         <v>212</v>
@@ -4922,7 +4919,7 @@
         <v>200</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="J29" s="17" t="s">
         <v>212</v>
@@ -4974,7 +4971,7 @@
         <v>201</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="J30" s="17" t="s">
         <v>212</v>
@@ -5026,7 +5023,7 @@
         <v>202</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="J31" s="17" t="s">
         <v>212</v>
@@ -5078,7 +5075,7 @@
         <v>203</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J32" s="17" t="s">
         <v>212</v>
@@ -5130,7 +5127,7 @@
         <v>204</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="J33" s="17" t="s">
         <v>219</v>
@@ -5184,7 +5181,7 @@
         <v>205</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="J34" s="17" t="s">
         <v>2</v>
@@ -5236,7 +5233,7 @@
         <v>206</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="J35" s="17" t="s">
         <v>212</v>
@@ -5290,7 +5287,7 @@
         <v>206</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J36" s="17" t="s">
         <v>212</v>
@@ -5344,7 +5341,7 @@
         <v>207</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="J37" s="17" t="s">
         <v>212</v>
@@ -5396,7 +5393,7 @@
         <v>208</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="J38" s="17" t="s">
         <v>212</v>
@@ -5450,7 +5447,7 @@
         <v>209</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="J39" s="17" t="s">
         <v>212</v>
@@ -5502,7 +5499,7 @@
         <v>210</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="J40" s="17" t="s">
         <v>212</v>
@@ -5554,7 +5551,7 @@
         <v>211</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="J41" s="17" t="s">
         <v>212</v>
@@ -26138,7 +26135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z972"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -26233,7 +26230,7 @@
         <v>182</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>2</v>
@@ -26285,7 +26282,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>10</v>
@@ -26337,7 +26334,7 @@
         <v>186</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
@@ -26387,7 +26384,7 @@
         <v>23</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
@@ -26437,7 +26434,7 @@
         <v>27</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
@@ -26487,7 +26484,7 @@
         <v>29</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
@@ -26537,7 +26534,7 @@
         <v>34</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="4" t="s">
@@ -26587,7 +26584,7 @@
         <v>39</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>10</v>
@@ -26639,7 +26636,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>42</v>
@@ -26691,7 +26688,7 @@
         <v>51</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="4" t="s">
@@ -26741,7 +26738,7 @@
         <v>58</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="4" t="s">
@@ -26791,7 +26788,7 @@
         <v>63</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>2</v>
@@ -26843,7 +26840,7 @@
         <v>65</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="4" t="s">
@@ -26893,7 +26890,7 @@
         <v>68</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="4" t="s">
@@ -26943,7 +26940,7 @@
         <v>247</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>2</v>
@@ -26995,7 +26992,7 @@
         <v>77</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="4" t="s">
@@ -27047,7 +27044,7 @@
         <v>82</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="J18" s="27"/>
       <c r="K18" s="27" t="s">
@@ -27099,7 +27096,7 @@
         <v>86</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>10</v>
@@ -27151,7 +27148,7 @@
         <v>192</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>10</v>
@@ -27203,7 +27200,7 @@
         <v>95</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>10</v>
@@ -27255,7 +27252,7 @@
         <v>101</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>10</v>
@@ -27307,7 +27304,7 @@
         <v>103</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="4" t="s">
@@ -27359,7 +27356,7 @@
         <v>109</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>10</v>
@@ -27411,7 +27408,7 @@
         <v>198</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="J25" s="17" t="s">
         <v>212</v>
@@ -27465,7 +27462,7 @@
         <v>198</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="J26" s="17" t="s">
         <v>212</v>
@@ -27519,7 +27516,7 @@
         <v>200</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="J27" s="17" t="s">
         <v>212</v>
@@ -27571,7 +27568,7 @@
         <v>201</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="J28" s="17" t="s">
         <v>212</v>
@@ -27623,7 +27620,7 @@
         <v>202</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="J29" s="17" t="s">
         <v>212</v>
@@ -27675,7 +27672,7 @@
         <v>203</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J30" s="17" t="s">
         <v>212</v>
@@ -27727,7 +27724,7 @@
         <v>204</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="4" t="s">
@@ -27779,7 +27776,7 @@
         <v>205</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="J32" s="17" t="s">
         <v>2</v>
@@ -27831,7 +27828,7 @@
         <v>206</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="J33" s="17" t="s">
         <v>212</v>
@@ -27885,7 +27882,7 @@
         <v>206</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J34" s="17" t="s">
         <v>212</v>
@@ -27939,7 +27936,7 @@
         <v>207</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="J35" s="17" t="s">
         <v>212</v>
@@ -27991,7 +27988,7 @@
         <v>208</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="J36" s="17" t="s">
         <v>212</v>
@@ -28045,7 +28042,7 @@
         <v>209</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="J37" s="17" t="s">
         <v>212</v>
@@ -28097,7 +28094,7 @@
         <v>210</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="J38" s="17" t="s">
         <v>212</v>
@@ -48683,8 +48680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB998"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -48708,7 +48705,7 @@
         <v>193</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>224</v>
@@ -48762,27 +48759,27 @@
     </row>
     <row r="2" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2"/>
       <c r="E2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G2" t="s">
         <v>544</v>
-      </c>
-      <c r="F2" t="s">
-        <v>545</v>
-      </c>
-      <c r="G2" t="s">
-        <v>546</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="8" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
@@ -48792,7 +48789,7 @@
         <v>7</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -48810,27 +48807,27 @@
     </row>
     <row r="3" spans="1:28" ht="126" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>2</v>
@@ -48858,29 +48855,29 @@
     </row>
     <row r="4" spans="1:28" ht="163.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
@@ -48906,27 +48903,27 @@
     </row>
     <row r="5" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5"/>
       <c r="E5" t="s">
+        <v>547</v>
+      </c>
+      <c r="F5" t="s">
+        <v>548</v>
+      </c>
+      <c r="G5" t="s">
         <v>549</v>
-      </c>
-      <c r="F5" t="s">
-        <v>550</v>
-      </c>
-      <c r="G5" t="s">
-        <v>551</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="8" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
@@ -48936,7 +48933,7 @@
         <v>12</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -48954,29 +48951,29 @@
     </row>
     <row r="6" spans="1:28" ht="163.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
@@ -49002,29 +48999,29 @@
     </row>
     <row r="7" spans="1:28" ht="163.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="33" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="4" t="s">
@@ -49050,29 +49047,29 @@
     </row>
     <row r="8" spans="1:28" ht="163.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
@@ -49098,29 +49095,29 @@
     </row>
     <row r="9" spans="1:28" ht="138.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>42</v>
@@ -49148,39 +49145,39 @@
     </row>
     <row r="10" spans="1:28" s="44" customFormat="1" ht="101" x14ac:dyDescent="0.35">
       <c r="A10" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="37" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="L10" s="40"/>
       <c r="M10" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="N10" s="41" t="s">
         <v>12</v>
       </c>
       <c r="O10" s="37" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P10" s="43"/>
       <c r="Q10" s="43"/>
@@ -49198,44 +49195,44 @@
     </row>
     <row r="11" spans="1:28" s="44" customFormat="1" ht="151" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B11" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>363</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>365</v>
-      </c>
       <c r="D11" s="32" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H11"/>
       <c r="J11" s="38" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="L11" s="40" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="N11" s="41" t="s">
         <v>12</v>
       </c>
       <c r="O11" s="42" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="P11" s="43"/>
       <c r="Q11" s="43"/>
@@ -49253,37 +49250,37 @@
     </row>
     <row r="12" spans="1:28" s="44" customFormat="1" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A12" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>373</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>364</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>375</v>
-      </c>
       <c r="F12" s="33" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="L12" s="40"/>
       <c r="M12" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="N12" s="41" t="s">
         <v>12</v>
@@ -49305,13 +49302,13 @@
     </row>
     <row r="13" spans="1:28" s="44" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="34"/>
@@ -49320,20 +49317,20 @@
       <c r="H13" s="36"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="N13" s="41" t="s">
         <v>12</v>
       </c>
       <c r="O13" s="37" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="P13" s="43"/>
       <c r="Q13" s="43"/>
@@ -49351,39 +49348,39 @@
     </row>
     <row r="14" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A14" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="C14" t="s">
+        <v>558</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="C14" t="s">
-        <v>560</v>
-      </c>
-      <c r="D14" s="19" t="s">
+      <c r="F14" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="G14" s="19" t="s">
         <v>384</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>386</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="18"/>
       <c r="J14" s="38" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="L14" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>12</v>
@@ -49405,39 +49402,39 @@
     </row>
     <row r="15" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A15" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="18"/>
       <c r="J15" s="38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>12</v>
@@ -49459,29 +49456,29 @@
     </row>
     <row r="16" spans="1:28" ht="138" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>380</v>
-      </c>
       <c r="G16" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>42</v>
@@ -49509,39 +49506,39 @@
     </row>
     <row r="17" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A17" s="45" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B17" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C17" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E17" t="s">
+        <v>394</v>
+      </c>
+      <c r="F17" t="s">
         <v>395</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>396</v>
-      </c>
-      <c r="F17" t="s">
-        <v>397</v>
-      </c>
-      <c r="G17" t="s">
-        <v>398</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="18"/>
       <c r="J17" s="38" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>7</v>
@@ -49563,39 +49560,39 @@
     </row>
     <row r="18" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A18" s="45" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D18" t="s">
+        <v>397</v>
+      </c>
+      <c r="E18" t="s">
+        <v>398</v>
+      </c>
+      <c r="F18" t="s">
         <v>399</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>400</v>
-      </c>
-      <c r="F18" t="s">
-        <v>401</v>
-      </c>
-      <c r="G18" t="s">
-        <v>402</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="18"/>
       <c r="J18" s="38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>7</v>
@@ -49617,29 +49614,29 @@
     </row>
     <row r="19" spans="1:28" ht="138.5" x14ac:dyDescent="0.35">
       <c r="A19" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B19" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="E19" t="s">
+        <v>390</v>
+      </c>
+      <c r="F19" t="s">
         <v>391</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>392</v>
-      </c>
-      <c r="F19" t="s">
-        <v>393</v>
-      </c>
-      <c r="G19" t="s">
-        <v>394</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>42</v>
@@ -49667,29 +49664,29 @@
     </row>
     <row r="20" spans="1:28" ht="163.5" x14ac:dyDescent="0.35">
       <c r="A20" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="L20" s="12"/>
       <c r="M20" s="4" t="s">
@@ -49715,29 +49712,29 @@
     </row>
     <row r="21" spans="1:28" ht="251" x14ac:dyDescent="0.35">
       <c r="A21" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="E21" t="s">
+        <v>408</v>
+      </c>
+      <c r="F21" t="s">
         <v>409</v>
       </c>
-      <c r="E21" t="s">
-        <v>410</v>
-      </c>
-      <c r="F21" t="s">
-        <v>411</v>
-      </c>
       <c r="G21" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L21" s="12"/>
       <c r="M21" s="4" t="s">
@@ -49763,29 +49760,29 @@
     </row>
     <row r="22" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A22" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" t="s">
+        <v>411</v>
+      </c>
+      <c r="E22" t="s">
+        <v>412</v>
+      </c>
+      <c r="F22" t="s">
         <v>413</v>
       </c>
-      <c r="E22" t="s">
-        <v>414</v>
-      </c>
-      <c r="F22" t="s">
-        <v>415</v>
-      </c>
       <c r="G22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H22" s="20"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L22" s="14" t="s">
         <v>42</v>
@@ -49813,29 +49810,29 @@
     </row>
     <row r="23" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A23" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B23" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E23" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F23" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G23" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L23" s="14" t="s">
         <v>42</v>
@@ -49863,39 +49860,39 @@
     </row>
     <row r="24" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A24" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B24" t="s">
+        <v>417</v>
+      </c>
+      <c r="C24" t="s">
+        <v>418</v>
+      </c>
+      <c r="D24" t="s">
         <v>419</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>420</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>421</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>422</v>
-      </c>
-      <c r="F24" t="s">
-        <v>423</v>
-      </c>
-      <c r="G24" t="s">
-        <v>424</v>
       </c>
       <c r="H24" s="20"/>
       <c r="I24" s="18"/>
       <c r="J24" s="38" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L24" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>7</v>
@@ -49917,39 +49914,39 @@
     </row>
     <row r="25" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A25" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B25" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C25" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D25" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>427</v>
-      </c>
       <c r="E25" s="30" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F25" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G25" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="18"/>
       <c r="J25" s="38" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L25" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>7</v>
@@ -49971,28 +49968,28 @@
     </row>
     <row r="26" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A26" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B26" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>428</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="F26" s="35" t="s">
         <v>429</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="G26" s="30" t="s">
         <v>430</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>431</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>432</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="4" t="s">
@@ -50002,7 +49999,7 @@
         <v>12</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
@@ -50020,29 +50017,29 @@
     </row>
     <row r="27" spans="1:28" s="29" customFormat="1" ht="163.5" x14ac:dyDescent="0.35">
       <c r="A27" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="30" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="26" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L27" s="27"/>
       <c r="M27" s="27" t="s">
@@ -50068,37 +50065,37 @@
     </row>
     <row r="28" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A28" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B28" t="s">
+        <v>436</v>
+      </c>
+      <c r="C28" t="s">
+        <v>437</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>438</v>
-      </c>
-      <c r="C28" t="s">
-        <v>439</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>440</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="7"/>
       <c r="J28" s="38" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L28" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>12</v>
@@ -50120,37 +50117,37 @@
     </row>
     <row r="29" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A29" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B29" t="s">
+        <v>436</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>438</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>443</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>444</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>440</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="7"/>
       <c r="J29" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="L29" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>12</v>
@@ -50172,37 +50169,37 @@
     </row>
     <row r="30" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A30" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B30" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="C30" t="s">
+        <v>437</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="C30" t="s">
-        <v>439</v>
-      </c>
-      <c r="D30" s="30" t="s">
+      <c r="F30" s="30" t="s">
         <v>447</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>449</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="7"/>
       <c r="J30" s="38" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L30" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>12</v>
@@ -50224,37 +50221,37 @@
     </row>
     <row r="31" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A31" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C31" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>450</v>
       </c>
-      <c r="D31" s="30" t="s">
-        <v>451</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>452</v>
-      </c>
       <c r="F31" s="30" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="7"/>
       <c r="J31" s="38" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="L31" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>12</v>
@@ -50276,13 +50273,13 @@
     </row>
     <row r="32" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
@@ -50291,22 +50288,22 @@
       <c r="H32" s="10"/>
       <c r="I32" s="7"/>
       <c r="J32" s="38" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L32" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
@@ -50324,29 +50321,29 @@
     </row>
     <row r="33" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A33" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="F33" s="30" t="s">
         <v>454</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="G33" s="30" t="s">
         <v>455</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>456</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>457</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
       <c r="K33" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="L33" s="14" t="s">
         <v>42</v>
@@ -50374,29 +50371,29 @@
     </row>
     <row r="34" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A34" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="F34" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="G34" s="30" t="s">
         <v>460</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>461</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>462</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
       <c r="K34" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L34" s="14" t="s">
         <v>42</v>
@@ -50424,39 +50421,39 @@
     </row>
     <row r="35" spans="1:28" ht="151" x14ac:dyDescent="0.35">
       <c r="A35" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B35" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="D35" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="E35" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="F35" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="G35" s="30" t="s">
         <v>466</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="G35" s="30" t="s">
-        <v>468</v>
       </c>
       <c r="H35" s="20"/>
       <c r="I35" s="18"/>
       <c r="J35" s="38" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L35" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>7</v>
@@ -50478,39 +50475,39 @@
     </row>
     <row r="36" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A36" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C36" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="F36" s="30" t="s">
         <v>469</v>
       </c>
-      <c r="D36" s="30" t="s">
-        <v>473</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>471</v>
-      </c>
       <c r="G36" s="30" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H36" s="20"/>
       <c r="I36" s="18"/>
       <c r="J36" s="38" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="L36" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>7</v>
@@ -50532,39 +50529,39 @@
     </row>
     <row r="37" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A37" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C37" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="D37" s="30" t="s">
         <v>474</v>
       </c>
-      <c r="D37" s="30" t="s">
-        <v>476</v>
-      </c>
       <c r="E37" s="30" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H37" s="20"/>
       <c r="I37" s="18"/>
       <c r="J37" s="38" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L37" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>7</v>
@@ -50586,29 +50583,29 @@
     </row>
     <row r="38" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A38" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G38" s="30" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H38" s="20"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
       <c r="K38" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="L38" s="14" t="s">
         <v>42</v>
@@ -50636,29 +50633,29 @@
     </row>
     <row r="39" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A39" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="F39" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="E39" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>480</v>
-      </c>
       <c r="G39" s="30" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H39" s="20"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
       <c r="K39" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="L39" s="14" t="s">
         <v>42</v>
@@ -50686,29 +50683,29 @@
     </row>
     <row r="40" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A40" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="30" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H40" s="20"/>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
       <c r="K40" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L40" s="14" t="s">
         <v>42</v>
@@ -50736,29 +50733,29 @@
     </row>
     <row r="41" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A41" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="30" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G41" s="33" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H41" s="20"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
       <c r="K41" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L41" s="14" t="s">
         <v>42</v>
@@ -50786,32 +50783,32 @@
     </row>
     <row r="42" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A42" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="30" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
       <c r="K42" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>4</v>
@@ -50820,7 +50817,7 @@
         <v>12</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
@@ -50841,42 +50838,42 @@
         <v>263</v>
       </c>
       <c r="B43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C43" t="s">
-        <v>305</v>
+        <v>683</v>
       </c>
       <c r="D43" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="G43" s="10" t="s">
         <v>510</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>512</v>
       </c>
       <c r="H43" s="10"/>
       <c r="I43" s="7"/>
       <c r="J43" s="38" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="L43" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>7</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
@@ -50897,10 +50894,10 @@
         <v>263</v>
       </c>
       <c r="B44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C44" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -50909,22 +50906,22 @@
       <c r="H44" s="10"/>
       <c r="I44" s="7"/>
       <c r="J44" s="38" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L44" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>7</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
@@ -50948,39 +50945,39 @@
         <v>304</v>
       </c>
       <c r="C45" t="s">
+        <v>683</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="38" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>620</v>
+        <v>684</v>
       </c>
       <c r="L45" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
@@ -51004,7 +51001,7 @@
         <v>304</v>
       </c>
       <c r="C46" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -51013,22 +51010,22 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="38" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L46" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N46" s="4" t="s">
         <v>7</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
@@ -51055,13 +51052,13 @@
         <v>299</v>
       </c>
       <c r="D47" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>515</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>300</v>
@@ -51071,16 +51068,16 @@
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="38" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="L47" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>7</v>
@@ -51111,13 +51108,13 @@
         <v>301</v>
       </c>
       <c r="D48" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>518</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>520</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>302</v>
@@ -51127,16 +51124,16 @@
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="38" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="L48" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N48" s="4" t="s">
         <v>7</v>
@@ -51164,16 +51161,16 @@
         <v>298</v>
       </c>
       <c r="C49" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D49" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>521</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>523</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>303</v>
@@ -51183,16 +51180,16 @@
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="38" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="L49" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>7</v>
@@ -51238,7 +51235,7 @@
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>2</v>
@@ -51272,7 +51269,7 @@
         <v>264</v>
       </c>
       <c r="C51" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D51" s="30" t="s">
         <v>266</v>
@@ -51289,16 +51286,16 @@
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="38" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>7</v>
@@ -51326,7 +51323,7 @@
         <v>264</v>
       </c>
       <c r="C52" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D52" s="30" t="s">
         <v>270</v>
@@ -51343,16 +51340,16 @@
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="38" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="N52" s="4" t="s">
         <v>7</v>
@@ -51397,16 +51394,16 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="38" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>7</v>
@@ -51451,16 +51448,16 @@
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="38" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N54" s="4" t="s">
         <v>7</v>
@@ -51505,16 +51502,16 @@
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="38" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N55" s="4" t="s">
         <v>7</v>
@@ -51542,7 +51539,7 @@
         <v>264</v>
       </c>
       <c r="C56" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D56" s="30" t="s">
         <v>286</v>
@@ -51559,16 +51556,16 @@
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="38" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N56" s="4" t="s">
         <v>7</v>
@@ -51596,7 +51593,7 @@
         <v>264</v>
       </c>
       <c r="C57" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D57" s="30" t="s">
         <v>289</v>
@@ -51613,16 +51610,16 @@
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="38" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>7</v>
@@ -51647,28 +51644,26 @@
         <v>263</v>
       </c>
       <c r="B58" t="s">
-        <v>310</v>
-      </c>
-      <c r="C58" t="s">
-        <v>321</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C58"/>
       <c r="D58" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H58" s="10"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="L58" s="12"/>
       <c r="M58" s="4" t="s">
@@ -51678,7 +51673,7 @@
         <v>12</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
@@ -51699,31 +51694,29 @@
         <v>263</v>
       </c>
       <c r="B59" t="s">
-        <v>313</v>
-      </c>
-      <c r="C59" t="s">
+        <v>312</v>
+      </c>
+      <c r="C59"/>
+      <c r="D59" t="s">
+        <v>317</v>
+      </c>
+      <c r="E59" t="s">
+        <v>316</v>
+      </c>
+      <c r="F59" t="s">
+        <v>315</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>314</v>
-      </c>
-      <c r="D59" t="s">
-        <v>318</v>
-      </c>
-      <c r="E59" t="s">
-        <v>317</v>
-      </c>
-      <c r="F59" t="s">
-        <v>316</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>315</v>
       </c>
       <c r="H59" s="10"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>4</v>
@@ -51731,7 +51724,9 @@
       <c r="N59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O59" s="3"/>
+      <c r="O59" s="3" t="s">
+        <v>313</v>
+      </c>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
@@ -51751,28 +51746,26 @@
         <v>263</v>
       </c>
       <c r="B60" t="s">
+        <v>319</v>
+      </c>
+      <c r="C60"/>
+      <c r="D60" t="s">
+        <v>323</v>
+      </c>
+      <c r="E60" t="s">
+        <v>322</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G60" t="s">
         <v>320</v>
-      </c>
-      <c r="C60" t="s">
-        <v>321</v>
-      </c>
-      <c r="D60" t="s">
-        <v>325</v>
-      </c>
-      <c r="E60" t="s">
-        <v>324</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G60" t="s">
-        <v>322</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="L60" s="4"/>
       <c r="M60" s="4" t="s">
@@ -51782,7 +51775,7 @@
         <v>12</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
@@ -51803,20 +51796,20 @@
         <v>263</v>
       </c>
       <c r="B61" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H61" s="10" t="s">
         <v>183</v>
@@ -51824,7 +51817,7 @@
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="8" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="L61" s="11" t="s">
         <v>10</v>
@@ -51855,28 +51848,26 @@
         <v>263</v>
       </c>
       <c r="B62" t="s">
+        <v>328</v>
+      </c>
+      <c r="C62"/>
+      <c r="D62" t="s">
+        <v>329</v>
+      </c>
+      <c r="E62" t="s">
         <v>330</v>
       </c>
-      <c r="C62" t="s">
-        <v>321</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="F62" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="E62" t="s">
-        <v>332</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="G62" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L62" s="4"/>
       <c r="M62" s="4" t="s">
@@ -51886,7 +51877,7 @@
         <v>12</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
@@ -51907,36 +51898,36 @@
         <v>263</v>
       </c>
       <c r="B63" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C63" t="s">
         <v>299</v>
       </c>
       <c r="D63" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="G63" s="10" t="s">
         <v>336</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>338</v>
       </c>
       <c r="H63" s="10"/>
       <c r="I63" s="7"/>
       <c r="J63" s="38" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="L63" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>7</v>
@@ -51961,36 +51952,36 @@
         <v>263</v>
       </c>
       <c r="B64" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C64" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H64" s="10"/>
       <c r="I64" s="7"/>
       <c r="J64" s="38" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="L64" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N64" s="4" t="s">
         <v>7</v>

--- a/inst/adlb_grading/adlb_grading_spec.xlsx
+++ b/inst/adlb_grading/adlb_grading_spec.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6090" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NCICTCAEv4" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DAIDS!$C$1:$C$998</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">NCICTCAEv5!$B$1:$B$972</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miMf568I5zSj3ueLWeKTzSDumdwrA=="/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="688">
   <si>
     <t>Anemia</t>
   </si>
@@ -773,12 +774,6 @@
   </si>
   <si>
     <t>A finding based on laboratory test results that indicate increased levels of hemoglobin above normal.</t>
-  </si>
-  <si>
-    <t>&gt;1.5 - 2.5 x ULN; &gt;1.5 - 2.5 x baseline if on anticoagulation; dose adjustment indicated</t>
-  </si>
-  <si>
-    <t>&gt;1.2 - 1.5 x ULN; &gt;1 - 1.5 x baseline if on anticoagulation; monitoring only indicated</t>
   </si>
   <si>
     <t>&gt;5.0 x ULN and with signs or symptoms</t>
@@ -2796,36 +2791,6 @@
   <si>
     <t>case_when(
 is.na(AVAL) | is.na(ANRHI) ~ NA_character_,
-(is.na(BASE) | signif(BASE, signif_dig) &lt;= signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt; signif(20*ANRHI, signif_dig) ~ "4",
-(!is.na(BASE) &amp; signif(BASE, signif_dig) &gt; signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt; signif(20*BASE, signif_dig) ~ "4",
-(is.na(BASE) | signif(BASE, signif_dig) &lt;= signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt; signif(5*ANRHI, signif_dig) ~ "3",
-(!is.na(BASE) &amp; signif(BASE, signif_dig) &gt; signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt; signif(5*BASE, signif_dig) ~ "3",
-(is.na(BASE) | signif(BASE, signif_dig) &lt;= signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt; signif(3*ANRHI, signif_dig) ~ "2",
-(!is.na(BASE) &amp; signif(BASE, signif_dig) &gt; signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt; signif(3*BASE, signif_dig) ~ "2",
-(is.na(BASE) | signif(BASE, signif_dig) &lt;= signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt; signif(ANRHI, signif_dig) ~ "1",
-(!is.na(BASE) &amp; signif(BASE, signif_dig) &gt; signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt;= signif(1.5*BASE, signif_dig) ~ "1",
-(is.na(BASE) | signif(BASE, signif_dig) &lt;= signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &lt;= signif(ANRHI, signif_dig) ~ "0",
-(!is.na(BASE) &amp; signif(BASE, signif_dig) &gt; signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &lt; signif(1.5*BASE, signif_dig) ~ "0"
-)</t>
-  </si>
-  <si>
-    <t>case_when(
-is.na(AVAL) | is.na(ANRHI) ~ NA_character_,
-(is.na(BASE) | signif(BASE, signif_dig) &lt;= signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt; signif(20*ANRHI, signif_dig) ~ "4",
-(!is.na(BASE) &amp; signif(BASE, signif_dig) &gt; signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt; signif(20*BASE, signif_dig) ~ "4",
-(is.na(BASE) | signif(BASE, signif_dig) &lt;= signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt; signif(5*ANRHI, signif_dig) ~ "3",
-(!is.na(BASE) &amp; signif(BASE, signif_dig) &gt; signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt; signif(5*BASE, signif_dig) ~ "3",
-(is.na(BASE) | signif(BASE, signif_dig) &lt;= signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt; signif(2.5*ANRHI, signif_dig) ~ "2",
-(!is.na(BASE) &amp; signif(BASE, signif_dig) &gt; signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt; signif(2.5*BASE, signif_dig) ~ "2",
-(is.na(BASE) | signif(BASE, signif_dig) &lt;= signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt; signif(ANRHI, signif_dig) ~ "1",
-(!is.na(BASE) &amp; signif(BASE, signif_dig) &gt; signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt;= signif(2*BASE, signif_dig) ~ "1",
-(is.na(BASE) | signif(BASE, signif_dig) &lt;= signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &lt;= signif(ANRHI, signif_dig) ~ "0",
-!is.na(BASE) &amp; signif(BASE, signif_dig) &gt; signif(ANRHI, signif_dig) &amp; signif(AVAL, signif_dig) &lt; signif(2*BASE, signif_dig) ~ "0"
-)</t>
-  </si>
-  <si>
-    <t>case_when(
-is.na(AVAL) | is.na(ANRHI) ~ NA_character_,
 signif(AVAL, signif_dig) &gt; signif(10*ANRHI, signif_dig) ~ "4",
 signif(AVAL, signif_dig) &gt; signif(5*ANRHI, signif_dig) ~ "3",
 signif(AVAL, signif_dig) &gt; signif(2.5*ANRHI, signif_dig) ~ "2",
@@ -2851,19 +2816,6 @@
 signif(AVAL, signif_dig) &gt; signif(ANRHI + 20, signif_dig) ~ "2",
 signif(AVAL, signif_dig) &gt; signif(ANRHI, signif_dig) ~ "1",
 signif(AVAL, signif_dig) &lt;= signif(ANRHI, signif_dig) ~ "0"
-)</t>
-  </si>
-  <si>
-    <t>case_when(
-is.na(AVAL) ~ NA_character_,
-!is.na(ANRHI) &amp; signif(AVAL, signif_dig) &gt; signif(2.5*ANRHI, signif_dig) ~ "3",
-!is.na(BASE) &amp; signif(AVAL, signif_dig) &gt; signif(2.5*BASE, signif_dig) ~ "3",
-!is.na(ANRHI) &amp; signif(AVAL, signif_dig) &gt; signif(1.5*ANRHI, signif_dig) ~ "2",
-!is.na(BASE) &amp; signif(AVAL, signif_dig) &gt; signif(1.5*BASE, signif_dig) ~ "2",
-!is.na(ANRHI) &amp; signif(AVAL, signif_dig) &gt; signif(1.2*ANRHI, signif_dig) ~ "1",
-!is.na(BASE) &amp; signif(AVAL, signif_dig) &gt; signif(BASE, signif_dig) ~ "1",
-!is.na(ANRHI) &amp; signif(AVAL, signif_dig) &lt;= signif(1.2*ANRHI, signif_dig) &amp; !is.na(BASE) &amp; signif(AVAL, signif_dig) &lt;= signif(BASE, signif_dig) ~ "0",
-is.na(ANRHI) | is.na(BASE) ~ NA_character_
 )</t>
   </si>
   <si>
@@ -2910,36 +2862,6 @@
 )</t>
   </si>
   <si>
-    <t>case_when(
-is.na(AVAL) | is.na(ANRHI) ~ NA_character_,
-(is.na(BASE) | signif(BASE, signif_dig) &lt;= signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt; signif(20*ANRHI, signif_dig) ~ "4",
-!is.na(BASE) &amp; signif(BASE, signif_dig) &gt; signif(ANRHI, signif_dig) &amp; signif(AVAL, signif_dig) &gt; signif(20*BASE, signif_dig) ~ "4",
-(is.na(BASE) | signif(BASE, signif_dig) &lt;= signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt; signif(5*ANRHI, signif_dig) ~ "3",
-!is.na(BASE) &amp; signif(BASE, signif_dig) &gt; signif(ANRHI, signif_dig) &amp; signif(AVAL, signif_dig) &gt; signif(5*BASE, signif_dig) ~ "3",
-(is.na(BASE) | signif(BASE, signif_dig) &lt;= signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt; signif(2.5*ANRHI, signif_dig) ~ "2",
-!is.na(BASE) &amp; signif(BASE, signif_dig) &gt; signif(ANRHI, signif_dig) &amp; signif(AVAL, signif_dig) &gt; signif(2.5*BASE, signif_dig) ~ "2",
-(is.na(BASE) | signif(BASE, signif_dig) &lt;= signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt; signif(ANRHI, signif_dig) ~ "1",
-!is.na(BASE) &amp; signif(BASE, signif_dig) &gt; signif(ANRHI, signif_dig) &amp; signif(AVAL, signif_dig) &gt; signif(2*BASE, signif_dig) ~ "1",
-(is.na(BASE) | signif(BASE, signif_dig) &lt;= signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &lt;= signif(ANRHI, signif_dig) ~ "0",
-!is.na(BASE) &amp; signif(BASE, signif_dig) &gt; signif(ANRHI, signif_dig) &amp; signif(AVAL, signif_dig) &lt;= signif(2*BASE, signif_dig) ~ "0"
-)</t>
-  </si>
-  <si>
-    <t>case_when(
-is.na(AVAL) | is.na(ANRHI) ~ NA_character_,
-(is.na(BASE) | signif(BASE, signif_dig) &lt;= signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt; signif(10*ANRHI, signif_dig) ~ "4",
-!is.na(BASE) &amp; signif(BASE, signif_dig) &gt; signif(ANRHI, signif_dig) &amp; signif(AVAL, signif_dig) &gt; signif(10*BASE, signif_dig) ~ "4",
-(is.na(BASE) | signif(BASE, signif_dig) &lt;= signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt; signif(3*ANRHI, signif_dig) ~ "3",
-!is.na(BASE) &amp; signif(BASE, signif_dig) &gt; signif(ANRHI, signif_dig) &amp; signif(AVAL, signif_dig) &gt; signif(3*BASE, signif_dig) ~ "3",
-(is.na(BASE) | signif(BASE, signif_dig) &lt;= signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt; signif(1.5*ANRHI, signif_dig) ~ "2",
-!is.na(BASE) &amp; signif(BASE, signif_dig) &gt; signif(ANRHI, signif_dig) &amp; signif(AVAL, signif_dig) &gt; signif(1.5*BASE, signif_dig) ~ "2",
-(is.na(BASE) | signif(BASE, signif_dig) &lt;= signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &gt; signif(ANRHI, signif_dig) ~ "1",
-!is.na(BASE) &amp; signif(BASE, signif_dig) &gt; signif(ANRHI, signif_dig) &amp; signif(AVAL, signif_dig) &gt; signif(BASE, signif_dig) ~ "1",
-(is.na(BASE) | signif(BASE, signif_dig) &lt;= signif(ANRHI, signif_dig)) &amp; signif(AVAL, signif_dig) &lt;= signif(ANRHI, signif_dig) ~ "0",
-!is.na(BASE) &amp; signif(BASE, signif_dig) &gt; signif(ANRHI, signif_dig) &amp; signif(AVAL, signif_dig) &lt;= signif(BASE, signif_dig) ~ "0"
-)</t>
-  </si>
-  <si>
     <t>&gt; 5 years of age</t>
   </si>
   <si>
@@ -2950,6 +2872,94 @@
 signif(AVAL, signif_dig) &lt; 0.6 ~ "2",
 signif(AVAL, signif_dig) &lt; 0.65 ~ "1",
 signif(AVAL, signif_dig) &gt;= 0.65 ~ "0"
+)</t>
+  </si>
+  <si>
+    <t>&gt;1.2 - 1.5; &gt;1 - 1.5 x baseline if on anticoagulation; monitoring only indicated</t>
+  </si>
+  <si>
+    <t>&gt;1.5 - 2.5; &gt;1.5 - 2.5 x baseline if on anticoagulation; dose adjustment indicated</t>
+  </si>
+  <si>
+    <t>&gt;2.5; &gt;2.5 times above baseline if on anticoagulation</t>
+  </si>
+  <si>
+    <t>case_when(
+is.na(AVAL) ~ NA_character_,
+signif(AVAL, signif_dig) &gt; signif(2.5, signif_dig) ~ "3",
+!is.na(BASE) &amp; signif(AVAL, signif_dig) &gt; signif(2.5*BASE, signif_dig) ~ "3",
+signif(AVAL, signif_dig) &gt; signif(1.5, signif_dig) ~ "2",
+!is.na(BASE) &amp; signif(AVAL, signif_dig) &gt; signif(1.5*BASE, signif_dig) ~ "2",
+signif(AVAL, signif_dig) &gt; signif(1.2, signif_dig) ~ "1",
+!is.na(BASE) &amp; signif(AVAL, signif_dig) &gt; signif(BASE, signif_dig) ~ "1",
+signif(AVAL, signif_dig) &lt;= signif(1.2, signif_dig) &amp; !is.na(BASE) &amp; signif(AVAL, signif_dig) &lt;= signif(BASE, signif_dig) ~ "0",
+is.na(BASE) ~ NA_character_
+)</t>
+  </si>
+  <si>
+    <t>AVAL, BASE</t>
+  </si>
+  <si>
+    <t>AVAL, ANRHI, BASE, BNRIND</t>
+  </si>
+  <si>
+    <t>case_when(
+is.na(AVAL) | is.na(ANRHI) ~ NA_character_,
+!(BNRIND %in% abnormal_indicator) &amp; signif(AVAL, signif_dig) &gt; signif(20*ANRHI, signif_dig) ~ "4",
+BNRIND %in% abnormal_indicator &amp; signif(AVAL, signif_dig) &gt; signif(20*BASE, signif_dig) ~ "4",
+!(BNRIND %in% abnormal_indicator) &amp; signif(AVAL, signif_dig) &gt; signif(5*ANRHI, signif_dig) ~ "3",
+BNRIND %in% abnormal_indicator &amp; signif(AVAL, signif_dig) &gt; signif(5*BASE, signif_dig) ~ "3",
+!(BNRIND %in% abnormal_indicator) &amp; signif(AVAL, signif_dig) &gt; signif(2.5*ANRHI, signif_dig) ~ "2",
+BNRIND %in% abnormal_indicator &amp; signif(AVAL, signif_dig) &gt; signif(2.5*BASE, signif_dig) ~ "2",
+!(BNRIND %in% abnormal_indicator) &amp; signif(AVAL, signif_dig) &gt; signif(ANRHI, signif_dig) ~ "1",
+BNRIND %in% abnormal_indicator &amp; signif(AVAL, signif_dig) &gt; signif(2*BASE, signif_dig) ~ "1",
+!(BNRIND %in% abnormal_indicator) &amp; signif(AVAL, signif_dig) &lt;= signif(ANRHI, signif_dig) ~ "0",
+BNRIND %in% abnormal_indicator &amp; signif(AVAL, signif_dig) &lt;= signif(2*BASE, signif_dig) ~ "0"
+)</t>
+  </si>
+  <si>
+    <t>case_when(
+is.na(AVAL) | is.na(ANRHI) ~ NA_character_,
+!(BNRIND %in% abnormal_indicator) &amp; signif(AVAL, signif_dig) &gt; signif(20*ANRHI, signif_dig) ~ "4",
+BNRIND %in% abnormal_indicator &amp; signif(AVAL, signif_dig) &gt; signif(20*BASE, signif_dig) ~ "4",
+!(BNRIND %in% abnormal_indicator) &amp; signif(AVAL, signif_dig) &gt; signif(5*ANRHI, signif_dig) ~ "3",
+BNRIND %in% abnormal_indicator &amp; signif(AVAL, signif_dig) &gt; signif(5*BASE, signif_dig) ~ "3",
+!(BNRIND %in% abnormal_indicator) &amp; signif(AVAL, signif_dig) &gt; signif(3*ANRHI, signif_dig) ~ "2",
+BNRIND %in% abnormal_indicator &amp; signif(AVAL, signif_dig) &gt; signif(3*BASE, signif_dig) ~ "2",
+!(BNRIND %in% abnormal_indicator) &amp; signif(AVAL, signif_dig) &gt; signif(ANRHI, signif_dig) ~ "1",
+BNRIND %in% abnormal_indicator &amp; signif(AVAL, signif_dig) &gt;= signif(1.5*BASE, signif_dig) ~ "1",
+!(BNRIND %in% abnormal_indicator) &amp; signif(AVAL, signif_dig) &lt;= signif(ANRHI, signif_dig) ~ "0",
+BNRIND %in% abnormal_indicator &amp; signif(AVAL, signif_dig) &lt; signif(1.5*BASE, signif_dig) ~ "0"
+)</t>
+  </si>
+  <si>
+    <t>case_when(
+is.na(AVAL) | is.na(ANRHI) ~ NA_character_,
+!(BNRIND %in% abnormal_indicator) &amp; signif(AVAL, signif_dig) &gt; signif(20*ANRHI, signif_dig) ~ "4",
+BNRIND %in% abnormal_indicator &amp; signif(AVAL, signif_dig) &gt; signif(20*BASE, signif_dig) ~ "4",
+!(BNRIND %in% abnormal_indicator) &amp; signif(AVAL, signif_dig) &gt; signif(5*ANRHI, signif_dig) ~ "3",
+BNRIND %in% abnormal_indicator &amp; signif(AVAL, signif_dig) &gt; signif(5*BASE, signif_dig) ~ "3",
+!(BNRIND %in% abnormal_indicator) &amp; signif(AVAL, signif_dig) &gt; signif(2.5*ANRHI, signif_dig) ~ "2",
+BNRIND %in% abnormal_indicator &amp; signif(AVAL, signif_dig) &gt; signif(2.5*BASE, signif_dig) ~ "2",
+!(BNRIND %in% abnormal_indicator) &amp; signif(AVAL, signif_dig) &gt; signif(ANRHI, signif_dig) ~ "1",
+BNRIND %in% abnormal_indicator &amp; signif(AVAL, signif_dig) &gt;= signif(2*BASE, signif_dig) ~ "1",
+!(BNRIND %in% abnormal_indicator) &amp; signif(AVAL, signif_dig) &lt;= signif(ANRHI, signif_dig) ~ "0",
+BNRIND %in% abnormal_indicator &amp; signif(AVAL, signif_dig) &lt; signif(2*BASE, signif_dig) ~ "0"
+)</t>
+  </si>
+  <si>
+    <t>case_when(
+is.na(AVAL) | is.na(ANRHI) ~ NA_character_,
+!(BNRIND %in% abnormal_indicator) &amp; signif(AVAL, signif_dig) &gt; signif(10*ANRHI, signif_dig) ~ "4",
+BNRIND %in% abnormal_indicator &amp; signif(AVAL, signif_dig) &gt; signif(10*BASE, signif_dig) ~ "4",
+!(BNRIND %in% abnormal_indicator) &amp; signif(AVAL, signif_dig) &gt; signif(3*ANRHI, signif_dig) ~ "3",
+BNRIND %in% abnormal_indicator &amp; signif(AVAL, signif_dig) &gt; signif(3*BASE, signif_dig) ~ "3",
+!(BNRIND %in% abnormal_indicator) &amp; signif(AVAL, signif_dig) &gt; signif(1.5*ANRHI, signif_dig) ~ "2",
+BNRIND %in% abnormal_indicator &amp; signif(AVAL, signif_dig) &gt; signif(1.5*BASE, signif_dig) ~ "2",
+!(BNRIND %in% abnormal_indicator) &amp; signif(AVAL, signif_dig) &gt; signif(ANRHI, signif_dig) ~ "1",
+BNRIND %in% abnormal_indicator &amp; signif(AVAL, signif_dig) &gt; signif(BASE, signif_dig) ~ "1",
+!(BNRIND %in% abnormal_indicator) &amp; signif(AVAL, signif_dig) &lt;= signif(ANRHI, signif_dig) ~ "0",
+BNRIND %in% abnormal_indicator &amp; signif(AVAL, signif_dig) &lt;= signif(BASE, signif_dig) ~ "0"
 )</t>
   </si>
 </sst>
@@ -3529,7 +3539,7 @@
         <v>182</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>2</v>
@@ -3581,7 +3591,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>10</v>
@@ -3633,7 +3643,7 @@
         <v>186</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
@@ -3683,7 +3693,7 @@
         <v>23</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
@@ -3733,7 +3743,7 @@
         <v>27</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
@@ -3783,7 +3793,7 @@
         <v>29</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
@@ -3833,7 +3843,7 @@
         <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="4" t="s">
@@ -3883,7 +3893,7 @@
         <v>39</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>10</v>
@@ -3935,7 +3945,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>42</v>
@@ -3987,7 +3997,7 @@
         <v>51</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="4" t="s">
@@ -4037,7 +4047,7 @@
         <v>58</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="4" t="s">
@@ -4087,7 +4097,7 @@
         <v>63</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>2</v>
@@ -4139,7 +4149,7 @@
         <v>65</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="4" t="s">
@@ -4189,7 +4199,7 @@
         <v>68</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="4" t="s">
@@ -4239,7 +4249,7 @@
         <v>190</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>2</v>
@@ -4291,7 +4301,7 @@
         <v>77</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="4" t="s">
@@ -4343,7 +4353,7 @@
         <v>82</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="4" t="s">
@@ -4393,7 +4403,7 @@
         <v>86</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>10</v>
@@ -4445,7 +4455,7 @@
         <v>192</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>10</v>
@@ -4497,7 +4507,7 @@
         <v>95</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>10</v>
@@ -4549,7 +4559,7 @@
         <v>101</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>10</v>
@@ -4601,7 +4611,7 @@
         <v>103</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="4" t="s">
@@ -4651,7 +4661,7 @@
         <v>109</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>10</v>
@@ -4703,7 +4713,7 @@
         <v>198</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J25" s="17" t="s">
         <v>212</v>
@@ -4757,7 +4767,7 @@
         <v>198</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J26" s="17" t="s">
         <v>212</v>
@@ -4811,7 +4821,7 @@
         <v>199</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J27" s="17" t="s">
         <v>212</v>
@@ -4865,7 +4875,7 @@
         <v>199</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J28" s="17" t="s">
         <v>212</v>
@@ -4919,7 +4929,7 @@
         <v>200</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J29" s="17" t="s">
         <v>212</v>
@@ -4971,7 +4981,7 @@
         <v>201</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="J30" s="17" t="s">
         <v>212</v>
@@ -5023,7 +5033,7 @@
         <v>202</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="J31" s="17" t="s">
         <v>212</v>
@@ -5075,7 +5085,7 @@
         <v>203</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="J32" s="17" t="s">
         <v>212</v>
@@ -5127,7 +5137,7 @@
         <v>204</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="J33" s="17" t="s">
         <v>219</v>
@@ -5181,7 +5191,7 @@
         <v>205</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J34" s="17" t="s">
         <v>2</v>
@@ -5233,7 +5243,7 @@
         <v>206</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J35" s="17" t="s">
         <v>212</v>
@@ -5287,7 +5297,7 @@
         <v>206</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J36" s="17" t="s">
         <v>212</v>
@@ -5341,7 +5351,7 @@
         <v>207</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J37" s="17" t="s">
         <v>212</v>
@@ -5393,7 +5403,7 @@
         <v>208</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J38" s="17" t="s">
         <v>212</v>
@@ -5447,7 +5457,7 @@
         <v>209</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J39" s="17" t="s">
         <v>212</v>
@@ -5499,7 +5509,7 @@
         <v>210</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J40" s="17" t="s">
         <v>212</v>
@@ -5551,7 +5561,7 @@
         <v>211</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J41" s="17" t="s">
         <v>212</v>
@@ -26135,8 +26145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z972"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -26230,7 +26240,7 @@
         <v>182</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>2</v>
@@ -26282,7 +26292,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>10</v>
@@ -26334,7 +26344,7 @@
         <v>186</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
@@ -26358,7 +26368,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="288" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>185</v>
       </c>
@@ -26384,11 +26394,11 @@
         <v>23</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>54</v>
+        <v>683</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>12</v>
@@ -26408,7 +26418,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:26" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="288.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>185</v>
       </c>
@@ -26434,11 +26444,11 @@
         <v>27</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>54</v>
+        <v>683</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>12</v>
@@ -26458,7 +26468,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="288" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>185</v>
       </c>
@@ -26484,11 +26494,11 @@
         <v>29</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>54</v>
+        <v>683</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>12</v>
@@ -26508,7 +26518,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="288.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>185</v>
       </c>
@@ -26534,11 +26544,11 @@
         <v>34</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="4" t="s">
-        <v>54</v>
+        <v>683</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>12</v>
@@ -26584,7 +26594,7 @@
         <v>39</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>10</v>
@@ -26636,7 +26646,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>42</v>
@@ -26688,7 +26698,7 @@
         <v>51</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="4" t="s">
@@ -26738,7 +26748,7 @@
         <v>58</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="4" t="s">
@@ -26788,7 +26798,7 @@
         <v>63</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>2</v>
@@ -26814,7 +26824,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="288.5" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>185</v>
       </c>
@@ -26840,11 +26850,11 @@
         <v>65</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="4" t="s">
-        <v>15</v>
+        <v>683</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>12</v>
@@ -26890,7 +26900,7 @@
         <v>68</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="4" t="s">
@@ -26940,7 +26950,7 @@
         <v>247</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>2</v>
@@ -26966,7 +26976,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="1:26" ht="250.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="238" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>185</v>
       </c>
@@ -26974,13 +26984,13 @@
         <v>73</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>249</v>
+        <v>678</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>248</v>
+        <v>679</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>76</v>
+        <v>680</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>183</v>
@@ -26992,11 +27002,11 @@
         <v>77</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="4" t="s">
-        <v>15</v>
+        <v>682</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>12</v>
@@ -27029,13 +27039,13 @@
         <v>14</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>183</v>
@@ -27044,7 +27054,7 @@
         <v>82</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="J18" s="27"/>
       <c r="K18" s="27" t="s">
@@ -27054,7 +27064,7 @@
         <v>12</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
@@ -27096,7 +27106,7 @@
         <v>86</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>10</v>
@@ -27148,7 +27158,7 @@
         <v>192</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>10</v>
@@ -27200,7 +27210,7 @@
         <v>95</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>10</v>
@@ -27252,7 +27262,7 @@
         <v>101</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>10</v>
@@ -27289,13 +27299,13 @@
         <v>14</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>183</v>
@@ -27304,7 +27314,7 @@
         <v>103</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="4" t="s">
@@ -27314,7 +27324,7 @@
         <v>12</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -27356,7 +27366,7 @@
         <v>109</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>10</v>
@@ -27408,7 +27418,7 @@
         <v>198</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J25" s="17" t="s">
         <v>212</v>
@@ -27462,7 +27472,7 @@
         <v>198</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J26" s="17" t="s">
         <v>212</v>
@@ -27501,7 +27511,7 @@
         <v>121</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>123</v>
@@ -27516,7 +27526,7 @@
         <v>200</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J27" s="17" t="s">
         <v>212</v>
@@ -27568,7 +27578,7 @@
         <v>201</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="J28" s="17" t="s">
         <v>212</v>
@@ -27605,7 +27615,7 @@
         <v>130</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>132</v>
@@ -27620,7 +27630,7 @@
         <v>202</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="J29" s="17" t="s">
         <v>212</v>
@@ -27672,7 +27682,7 @@
         <v>203</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="J30" s="17" t="s">
         <v>212</v>
@@ -27706,16 +27716,16 @@
         <v>139</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>197</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G31" s="19" t="s">
         <v>181</v>
@@ -27724,7 +27734,7 @@
         <v>204</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="4" t="s">
@@ -27776,7 +27786,7 @@
         <v>205</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J32" s="17" t="s">
         <v>2</v>
@@ -27828,7 +27838,7 @@
         <v>206</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J33" s="17" t="s">
         <v>212</v>
@@ -27882,7 +27892,7 @@
         <v>206</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J34" s="17" t="s">
         <v>212</v>
@@ -27936,7 +27946,7 @@
         <v>207</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J35" s="17" t="s">
         <v>212</v>
@@ -27973,7 +27983,7 @@
         <v>158</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>160</v>
@@ -27988,7 +27998,7 @@
         <v>208</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J36" s="17" t="s">
         <v>212</v>
@@ -28000,7 +28010,7 @@
         <v>7</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -28042,7 +28052,7 @@
         <v>209</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J37" s="17" t="s">
         <v>212</v>
@@ -28079,10 +28089,10 @@
         <v>168</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>170</v>
@@ -28094,7 +28104,7 @@
         <v>210</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="J38" s="17" t="s">
         <v>212</v>
@@ -28106,7 +28116,7 @@
         <v>7</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
@@ -48671,6 +48681,7 @@
       <c r="Z972" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B972"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -48680,8 +48691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -48705,7 +48716,7 @@
         <v>193</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>224</v>
@@ -48726,7 +48737,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="46" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>223</v>
@@ -48759,27 +48770,27 @@
     </row>
     <row r="2" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2"/>
       <c r="E2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F2" t="s">
+        <v>541</v>
+      </c>
+      <c r="G2" t="s">
         <v>542</v>
-      </c>
-      <c r="F2" t="s">
-        <v>543</v>
-      </c>
-      <c r="G2" t="s">
-        <v>544</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="8" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
@@ -48789,7 +48800,7 @@
         <v>7</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -48807,27 +48818,27 @@
     </row>
     <row r="3" spans="1:28" ht="126" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>2</v>
@@ -48855,29 +48866,29 @@
     </row>
     <row r="4" spans="1:28" ht="163.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="8" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
@@ -48903,27 +48914,27 @@
     </row>
     <row r="5" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5"/>
       <c r="E5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F5" t="s">
+        <v>546</v>
+      </c>
+      <c r="G5" t="s">
         <v>547</v>
-      </c>
-      <c r="F5" t="s">
-        <v>548</v>
-      </c>
-      <c r="G5" t="s">
-        <v>549</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
@@ -48933,7 +48944,7 @@
         <v>12</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -48951,29 +48962,29 @@
     </row>
     <row r="6" spans="1:28" ht="163.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
@@ -48999,29 +49010,29 @@
     </row>
     <row r="7" spans="1:28" ht="163.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="33" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="4" t="s">
@@ -49047,29 +49058,29 @@
     </row>
     <row r="8" spans="1:28" ht="163.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
@@ -49095,29 +49106,29 @@
     </row>
     <row r="9" spans="1:28" ht="138.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="8" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>42</v>
@@ -49145,39 +49156,39 @@
     </row>
     <row r="10" spans="1:28" s="44" customFormat="1" ht="101" x14ac:dyDescent="0.35">
       <c r="A10" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="37" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="L10" s="40"/>
       <c r="M10" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="N10" s="41" t="s">
         <v>12</v>
       </c>
       <c r="O10" s="37" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="P10" s="43"/>
       <c r="Q10" s="43"/>
@@ -49195,44 +49206,44 @@
     </row>
     <row r="11" spans="1:28" s="44" customFormat="1" ht="151" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B11" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>361</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>363</v>
-      </c>
       <c r="D11" s="32" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H11"/>
       <c r="J11" s="38" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="L11" s="40" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="N11" s="41" t="s">
         <v>12</v>
       </c>
       <c r="O11" s="42" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="P11" s="43"/>
       <c r="Q11" s="43"/>
@@ -49250,37 +49261,37 @@
     </row>
     <row r="12" spans="1:28" s="44" customFormat="1" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A12" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>373</v>
-      </c>
       <c r="F12" s="33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="L12" s="40"/>
       <c r="M12" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="N12" s="41" t="s">
         <v>12</v>
@@ -49302,13 +49313,13 @@
     </row>
     <row r="13" spans="1:28" s="44" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="34"/>
@@ -49317,20 +49328,20 @@
       <c r="H13" s="36"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="N13" s="41" t="s">
         <v>12</v>
       </c>
       <c r="O13" s="37" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="P13" s="43"/>
       <c r="Q13" s="43"/>
@@ -49348,39 +49359,39 @@
     </row>
     <row r="14" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A14" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C14" t="s">
+        <v>556</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="C14" t="s">
-        <v>558</v>
-      </c>
-      <c r="D14" s="19" t="s">
+      <c r="F14" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="G14" s="19" t="s">
         <v>382</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>384</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="18"/>
       <c r="J14" s="38" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="L14" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>12</v>
@@ -49402,39 +49413,39 @@
     </row>
     <row r="15" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A15" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="18"/>
       <c r="J15" s="38" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>12</v>
@@ -49456,29 +49467,29 @@
     </row>
     <row r="16" spans="1:28" ht="138" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>378</v>
-      </c>
       <c r="G16" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>42</v>
@@ -49506,39 +49517,39 @@
     </row>
     <row r="17" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A17" s="45" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B17" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C17" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D17" t="s">
+        <v>391</v>
+      </c>
+      <c r="E17" t="s">
+        <v>392</v>
+      </c>
+      <c r="F17" t="s">
         <v>393</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>394</v>
-      </c>
-      <c r="F17" t="s">
-        <v>395</v>
-      </c>
-      <c r="G17" t="s">
-        <v>396</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="18"/>
       <c r="J17" s="38" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>7</v>
@@ -49560,39 +49571,39 @@
     </row>
     <row r="18" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A18" s="45" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C18" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D18" t="s">
+        <v>395</v>
+      </c>
+      <c r="E18" t="s">
+        <v>396</v>
+      </c>
+      <c r="F18" t="s">
         <v>397</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>398</v>
-      </c>
-      <c r="F18" t="s">
-        <v>399</v>
-      </c>
-      <c r="G18" t="s">
-        <v>400</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="18"/>
       <c r="J18" s="38" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>7</v>
@@ -49614,29 +49625,29 @@
     </row>
     <row r="19" spans="1:28" ht="138.5" x14ac:dyDescent="0.35">
       <c r="A19" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E19" t="s">
+        <v>388</v>
+      </c>
+      <c r="F19" t="s">
         <v>389</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>390</v>
-      </c>
-      <c r="F19" t="s">
-        <v>391</v>
-      </c>
-      <c r="G19" t="s">
-        <v>392</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>42</v>
@@ -49664,29 +49675,29 @@
     </row>
     <row r="20" spans="1:28" ht="163.5" x14ac:dyDescent="0.35">
       <c r="A20" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B20" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L20" s="12"/>
       <c r="M20" s="4" t="s">
@@ -49712,29 +49723,29 @@
     </row>
     <row r="21" spans="1:28" ht="251" x14ac:dyDescent="0.35">
       <c r="A21" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B21" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="E21" t="s">
+        <v>406</v>
+      </c>
+      <c r="F21" t="s">
         <v>407</v>
       </c>
-      <c r="E21" t="s">
-        <v>408</v>
-      </c>
-      <c r="F21" t="s">
-        <v>409</v>
-      </c>
       <c r="G21" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L21" s="12"/>
       <c r="M21" s="4" t="s">
@@ -49760,29 +49771,29 @@
     </row>
     <row r="22" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A22" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B22" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" t="s">
+        <v>409</v>
+      </c>
+      <c r="E22" t="s">
+        <v>410</v>
+      </c>
+      <c r="F22" t="s">
         <v>411</v>
       </c>
-      <c r="E22" t="s">
-        <v>412</v>
-      </c>
-      <c r="F22" t="s">
-        <v>413</v>
-      </c>
       <c r="G22" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H22" s="20"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L22" s="14" t="s">
         <v>42</v>
@@ -49810,29 +49821,29 @@
     </row>
     <row r="23" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A23" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B23" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E23" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F23" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G23" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L23" s="14" t="s">
         <v>42</v>
@@ -49860,39 +49871,39 @@
     </row>
     <row r="24" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A24" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B24" t="s">
+        <v>415</v>
+      </c>
+      <c r="C24" t="s">
+        <v>416</v>
+      </c>
+      <c r="D24" t="s">
         <v>417</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>418</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>419</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>420</v>
-      </c>
-      <c r="F24" t="s">
-        <v>421</v>
-      </c>
-      <c r="G24" t="s">
-        <v>422</v>
       </c>
       <c r="H24" s="20"/>
       <c r="I24" s="18"/>
       <c r="J24" s="38" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="L24" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>7</v>
@@ -49914,39 +49925,39 @@
     </row>
     <row r="25" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A25" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B25" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C25" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="D25" s="30" t="s">
         <v>423</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>425</v>
-      </c>
       <c r="E25" s="30" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G25" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="18"/>
       <c r="J25" s="38" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L25" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>7</v>
@@ -49968,28 +49979,28 @@
     </row>
     <row r="26" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A26" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B26" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>426</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="F26" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="G26" s="30" t="s">
         <v>428</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>429</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>430</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="4" t="s">
@@ -49999,7 +50010,7 @@
         <v>12</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
@@ -50017,29 +50028,29 @@
     </row>
     <row r="27" spans="1:28" s="29" customFormat="1" ht="163.5" x14ac:dyDescent="0.35">
       <c r="A27" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="30" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="26" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L27" s="27"/>
       <c r="M27" s="27" t="s">
@@ -50065,37 +50076,37 @@
     </row>
     <row r="28" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A28" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B28" t="s">
+        <v>434</v>
+      </c>
+      <c r="C28" t="s">
+        <v>435</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>436</v>
-      </c>
-      <c r="C28" t="s">
-        <v>437</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>440</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>439</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>438</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="7"/>
       <c r="J28" s="38" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="L28" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>12</v>
@@ -50117,37 +50128,37 @@
     </row>
     <row r="29" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A29" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B29" t="s">
+        <v>434</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>436</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>443</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>438</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="7"/>
       <c r="J29" s="38" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="L29" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>12</v>
@@ -50169,37 +50180,37 @@
     </row>
     <row r="30" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A30" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B30" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="C30" t="s">
+        <v>435</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="C30" t="s">
-        <v>437</v>
-      </c>
-      <c r="D30" s="30" t="s">
+      <c r="F30" s="30" t="s">
         <v>445</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>447</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="7"/>
       <c r="J30" s="38" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L30" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>12</v>
@@ -50221,37 +50232,37 @@
     </row>
     <row r="31" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A31" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C31" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="D31" s="30" t="s">
-        <v>449</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>450</v>
-      </c>
       <c r="F31" s="30" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="7"/>
       <c r="J31" s="38" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="L31" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>12</v>
@@ -50273,13 +50284,13 @@
     </row>
     <row r="32" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
@@ -50288,22 +50299,22 @@
       <c r="H32" s="10"/>
       <c r="I32" s="7"/>
       <c r="J32" s="38" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L32" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
@@ -50321,29 +50332,29 @@
     </row>
     <row r="33" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A33" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="F33" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="G33" s="30" t="s">
         <v>453</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>454</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>455</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
       <c r="K33" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L33" s="14" t="s">
         <v>42</v>
@@ -50371,29 +50382,29 @@
     </row>
     <row r="34" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A34" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="F34" s="30" t="s">
         <v>457</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="G34" s="30" t="s">
         <v>458</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>459</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>460</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
       <c r="K34" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="L34" s="14" t="s">
         <v>42</v>
@@ -50421,39 +50432,39 @@
     </row>
     <row r="35" spans="1:28" ht="151" x14ac:dyDescent="0.35">
       <c r="A35" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B35" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="D35" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="E35" s="30" t="s">
         <v>462</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="F35" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="G35" s="30" t="s">
         <v>464</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>465</v>
-      </c>
-      <c r="G35" s="30" t="s">
-        <v>466</v>
       </c>
       <c r="H35" s="20"/>
       <c r="I35" s="18"/>
       <c r="J35" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="L35" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>7</v>
@@ -50475,39 +50486,39 @@
     </row>
     <row r="36" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A36" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C36" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="F36" s="30" t="s">
         <v>467</v>
       </c>
-      <c r="D36" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>469</v>
-      </c>
       <c r="G36" s="30" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H36" s="20"/>
       <c r="I36" s="18"/>
       <c r="J36" s="38" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="L36" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>7</v>
@@ -50529,39 +50540,39 @@
     </row>
     <row r="37" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A37" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C37" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="D37" s="30" t="s">
         <v>472</v>
       </c>
-      <c r="D37" s="30" t="s">
-        <v>474</v>
-      </c>
       <c r="E37" s="30" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H37" s="20"/>
       <c r="I37" s="18"/>
       <c r="J37" s="38" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L37" s="14" t="s">
         <v>42</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>7</v>
@@ -50583,29 +50594,29 @@
     </row>
     <row r="38" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A38" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G38" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H38" s="20"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
       <c r="K38" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L38" s="14" t="s">
         <v>42</v>
@@ -50633,29 +50644,29 @@
     </row>
     <row r="39" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A39" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="F39" s="30" t="s">
         <v>476</v>
       </c>
-      <c r="E39" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>478</v>
-      </c>
       <c r="G39" s="30" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H39" s="20"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
       <c r="K39" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L39" s="14" t="s">
         <v>42</v>
@@ -50683,29 +50694,29 @@
     </row>
     <row r="40" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A40" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="30" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H40" s="20"/>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
       <c r="K40" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="L40" s="14" t="s">
         <v>42</v>
@@ -50733,29 +50744,29 @@
     </row>
     <row r="41" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A41" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="30" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G41" s="33" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H41" s="20"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
       <c r="K41" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="L41" s="14" t="s">
         <v>42</v>
@@ -50783,32 +50794,32 @@
     </row>
     <row r="42" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A42" s="36" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="30" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
       <c r="K42" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>4</v>
@@ -50817,7 +50828,7 @@
         <v>12</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
@@ -50835,45 +50846,45 @@
     </row>
     <row r="43" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B43" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C43" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="D43" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="G43" s="10" t="s">
         <v>508</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>510</v>
       </c>
       <c r="H43" s="10"/>
       <c r="I43" s="7"/>
       <c r="J43" s="38" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L43" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>7</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
@@ -50891,13 +50902,13 @@
     </row>
     <row r="44" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B44" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C44" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -50906,22 +50917,22 @@
       <c r="H44" s="10"/>
       <c r="I44" s="7"/>
       <c r="J44" s="38" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L44" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>7</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
@@ -50939,45 +50950,45 @@
     </row>
     <row r="45" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B45" t="s">
+        <v>302</v>
+      </c>
+      <c r="C45" t="s">
+        <v>676</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C45" t="s">
-        <v>683</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="G45" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="38" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="L45" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
@@ -50995,13 +51006,13 @@
     </row>
     <row r="46" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B46" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C46" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -51010,22 +51021,22 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="38" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L46" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N46" s="4" t="s">
         <v>7</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
@@ -51043,41 +51054,41 @@
     </row>
     <row r="47" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B47" t="s">
+        <v>296</v>
+      </c>
+      <c r="C47" t="s">
+        <v>297</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>298</v>
-      </c>
-      <c r="C47" t="s">
-        <v>299</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>300</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>183</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="38" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="L47" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>7</v>
@@ -51099,41 +51110,41 @@
     </row>
     <row r="48" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B48" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C48" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D48" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>518</v>
-      </c>
       <c r="G48" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>183</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="38" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="L48" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N48" s="4" t="s">
         <v>7</v>
@@ -51155,41 +51166,41 @@
     </row>
     <row r="49" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B49" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C49" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D49" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>521</v>
-      </c>
       <c r="G49" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>183</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="38" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="L49" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>7</v>
@@ -51211,23 +51222,23 @@
     </row>
     <row r="50" spans="1:28" ht="226" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B50" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C50"/>
       <c r="D50" t="s">
+        <v>292</v>
+      </c>
+      <c r="E50" t="s">
+        <v>293</v>
+      </c>
+      <c r="F50" t="s">
         <v>294</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>295</v>
-      </c>
-      <c r="F50" t="s">
-        <v>296</v>
-      </c>
-      <c r="G50" t="s">
-        <v>297</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>183</v>
@@ -51235,7 +51246,7 @@
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>2</v>
@@ -51263,39 +51274,39 @@
     </row>
     <row r="51" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B51" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" t="s">
+        <v>560</v>
+      </c>
+      <c r="D51" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="C51" t="s">
-        <v>562</v>
-      </c>
-      <c r="D51" s="30" t="s">
+      <c r="E51" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="F51" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="G51" s="30" t="s">
         <v>267</v>
-      </c>
-      <c r="F51" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="G51" s="30" t="s">
-        <v>269</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="38" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>7</v>
@@ -51317,39 +51328,39 @@
     </row>
     <row r="52" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B52" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C52" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D52" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="F52" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="G52" s="30" t="s">
         <v>271</v>
-      </c>
-      <c r="F52" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="G52" s="30" t="s">
-        <v>273</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="38" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="N52" s="4" t="s">
         <v>7</v>
@@ -51371,39 +51382,39 @@
     </row>
     <row r="53" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B53" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C53" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D53" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="F53" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="E53" s="30" t="s">
+      <c r="G53" s="30" t="s">
         <v>271</v>
-      </c>
-      <c r="F53" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="G53" s="30" t="s">
-        <v>273</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="38" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>7</v>
@@ -51425,39 +51436,39 @@
     </row>
     <row r="54" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B54" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C54" t="s">
+        <v>273</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E54" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="F54" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="G54" s="30" t="s">
         <v>277</v>
-      </c>
-      <c r="F54" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="G54" s="30" t="s">
-        <v>279</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="38" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N54" s="4" t="s">
         <v>7</v>
@@ -51479,39 +51490,39 @@
     </row>
     <row r="55" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B55" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C55" t="s">
+        <v>278</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E55" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="D55" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="E55" s="30" t="s">
+      <c r="F55" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="G55" s="30" t="s">
         <v>282</v>
-      </c>
-      <c r="F55" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="G55" s="30" t="s">
-        <v>284</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="38" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N55" s="4" t="s">
         <v>7</v>
@@ -51533,39 +51544,39 @@
     </row>
     <row r="56" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C56" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D56" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="G56" s="30" t="s">
         <v>286</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="F56" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="G56" s="30" t="s">
-        <v>288</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="38" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N56" s="4" t="s">
         <v>7</v>
@@ -51587,39 +51598,39 @@
     </row>
     <row r="57" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B57" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C57" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D57" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F57" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="G57" s="30" t="s">
         <v>290</v>
-      </c>
-      <c r="F57" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="G57" s="30" t="s">
-        <v>292</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="38" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>7</v>
@@ -51641,29 +51652,29 @@
     </row>
     <row r="58" spans="1:28" ht="163.5" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B58" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C58"/>
       <c r="D58" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H58" s="10"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L58" s="12"/>
       <c r="M58" s="4" t="s">
@@ -51673,7 +51684,7 @@
         <v>12</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
@@ -51691,32 +51702,32 @@
     </row>
     <row r="59" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B59" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C59"/>
       <c r="D59" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E59" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F59" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H59" s="10"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>4</v>
@@ -51725,7 +51736,7 @@
         <v>12</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
@@ -51743,29 +51754,29 @@
     </row>
     <row r="60" spans="1:28" ht="163.5" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B60" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C60"/>
       <c r="D60" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E60" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G60" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L60" s="4"/>
       <c r="M60" s="4" t="s">
@@ -51775,7 +51786,7 @@
         <v>12</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
@@ -51793,23 +51804,23 @@
     </row>
     <row r="61" spans="1:28" ht="101" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B61" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H61" s="10" t="s">
         <v>183</v>
@@ -51817,7 +51828,7 @@
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="L61" s="11" t="s">
         <v>10</v>
@@ -51845,29 +51856,29 @@
     </row>
     <row r="62" spans="1:28" ht="163.5" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B62" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C62"/>
       <c r="D62" t="s">
+        <v>327</v>
+      </c>
+      <c r="E62" t="s">
+        <v>328</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="E62" t="s">
-        <v>330</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>331</v>
-      </c>
       <c r="G62" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="L62" s="4"/>
       <c r="M62" s="4" t="s">
@@ -51877,7 +51888,7 @@
         <v>12</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
@@ -51895,39 +51906,39 @@
     </row>
     <row r="63" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B63" t="s">
+        <v>330</v>
+      </c>
+      <c r="C63" t="s">
+        <v>297</v>
+      </c>
+      <c r="D63" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C63" t="s">
-        <v>299</v>
-      </c>
-      <c r="D63" s="10" t="s">
+      <c r="E63" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="G63" s="10" t="s">
         <v>334</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>336</v>
       </c>
       <c r="H63" s="10"/>
       <c r="I63" s="7"/>
       <c r="J63" s="38" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L63" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>7</v>
@@ -51949,39 +51960,39 @@
     </row>
     <row r="64" spans="1:28" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C64" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H64" s="10"/>
       <c r="I64" s="7"/>
       <c r="J64" s="38" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L64" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N64" s="4" t="s">
         <v>7</v>
